--- a/report_template/電動機特性計算表b1_20250728_rui.xlsx
+++ b/report_template/電動機特性計算表b1_20250728_rui.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui\Desktop\motor-characteristic-test\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5F76B-2FD8-4DB7-83C0-9B130E60A209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFC922-214F-470F-B49C-BE9765502050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6470" yWindow="4270" windowWidth="25400" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="loadsort_x" localSheetId="1">工作表1!$A$1:$I$129</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +26,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="loadsort_x" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\horng\SF_2025\DATA1\loadsort_x.csv" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,69 +940,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -995,7 +955,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,10 +994,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,6 +1030,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1073,6 +1096,6910 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBFC-4C11-BF30-29CA7F584B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261907071"/>
+        <c:axId val="261903743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261907071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261903743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261903743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261907071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$G$3:$G$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-240F-4318-A53B-BBF31C3DA22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262467791"/>
+        <c:axId val="262470703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262467791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262470703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262470703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262467791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$3:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96E2-406D-A05E-433C4FFBDC1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$H$3:$H$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96E2-406D-A05E-433C4FFBDC1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260426591"/>
+        <c:axId val="260422847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260426591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260422847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260422847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260426591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$I$3:$I$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="127"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F94-4D93-879B-3DC734BD16C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261916223"/>
+        <c:axId val="261917055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261916223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261917055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261917055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261916223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$G$3:$G$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22FC-4B4C-B9E4-B229E01AF246}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262467791"/>
+        <c:axId val="262470703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262467791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262470703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262470703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262467791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$3:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23E7-4C09-9351-0AFFFCBBB753}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$H$3:$H$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23E7-4C09-9351-0AFFFCBBB753}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260426591"/>
+        <c:axId val="260422847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260426591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260422847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260422847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260426591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$I$3:$I$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A60A-4D5C-AE2C-43944C836114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261916223"/>
+        <c:axId val="261917055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261916223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261917055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261917055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261916223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$3:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2C0-4A5C-9629-FE2CB882CEB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261907071"/>
+        <c:axId val="261903743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261907071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261903743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261903743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261907071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>407670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>377190</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="圖表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loadsort_x" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,12 +8263,1020 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:M40"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1357,38 +9292,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" ht="29.4" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="3.75" customHeight="1">
       <c r="A3" s="2"/>
@@ -1406,62 +9341,62 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
@@ -1477,10 +9412,10 @@
       <c r="K6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="75" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1497,10 +9432,10 @@
       <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1516,16 +9451,16 @@
       <c r="K7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="43"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="21.9" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="29"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1535,32 +9470,32 @@
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
@@ -1588,14 +9523,14 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="11"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="70"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="24" t="s">
         <v>31</v>
       </c>
@@ -1623,10 +9558,10 @@
       <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="23"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1642,10 +9577,10 @@
       <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="23"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1661,10 +9596,10 @@
       <c r="A14" s="19">
         <v>3</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -1680,10 +9615,10 @@
       <c r="A15" s="19">
         <v>4</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
       <c r="F15" s="23"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -1699,10 +9634,10 @@
       <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="23"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1718,10 +9653,10 @@
       <c r="A17" s="19">
         <v>6</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="23"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1737,10 +9672,10 @@
       <c r="A18" s="19">
         <v>7</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="23"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -1753,342 +9688,342 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="49" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="1:13" ht="9.65" customHeight="1">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="64"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="64"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="64"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="64"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="13.25" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="64"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="64"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="20" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="64"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="64"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="64"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="64"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" ht="8.25" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="66"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="68" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="69"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:13" ht="10.5" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="64"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="64"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="71"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="64"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="64"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="64"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="64"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="64"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="64"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" ht="47.4" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="77"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
     </row>
     <row r="41" spans="1:13" ht="8.25" customHeight="1">
       <c r="A41" s="7"/>
@@ -2112,10 +10047,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="25"/>
       <c r="I42" s="22" t="s">
         <v>36</v>
@@ -2131,6 +10066,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H4:I4"/>
@@ -2147,52 +10110,38 @@
     <mergeCell ref="A32:H40"/>
     <mergeCell ref="I32:M40"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="98" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61E079-FC71-48C2-A748-E7833CD0920A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report_template/電動機特性計算表b1_20250728_rui.xlsx
+++ b/report_template/電動機特性計算表b1_20250728_rui.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui\Desktop\motor-characteristic-test\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyUser\Desktop\motor-characteristic-test\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFC922-214F-470F-B49C-BE9765502050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36625D-CFF1-4F91-B80D-3DFB92C304D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6470" yWindow="4270" windowWidth="25400" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21645" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>試驗日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +132,6 @@
   </si>
   <si>
     <t>kW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,23 +341,31 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Slip %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -373,7 +373,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -381,7 +381,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -846,38 +846,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,10 +889,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,7 +907,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,10 +916,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
@@ -940,28 +934,85 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -994,31 +1045,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,57 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9276,13 +9270,13 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="4.9140625" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="5.25" customWidth="1"/>
     <col min="5" max="5" width="4.75" customWidth="1"/>
     <col min="6" max="6" width="6.25" customWidth="1"/>
@@ -9291,809 +9285,781 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>33</v>
+    <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>31</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
-    <row r="2" spans="1:13" ht="29.4" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>50</v>
+    <row r="2" spans="1:13" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="3.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+    <row r="3" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
-    <row r="5" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>29</v>
+      <c r="D6" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="73" t="s">
-        <v>41</v>
+      <c r="L6" s="38" t="s">
+        <v>39</v>
       </c>
-      <c r="M6" s="75" t="s">
-        <v>42</v>
+      <c r="M6" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:13" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
+      <c r="L7" s="39"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
+      <c r="B10" s="44" t="s">
+        <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>6</v>
       </c>
-      <c r="E7" s="61" t="s">
-        <v>11</v>
+      <c r="E10" s="44"/>
+      <c r="F10" s="13" t="s">
+        <v>7</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>20</v>
+      <c r="J10" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="24" t="s">
-        <v>31</v>
+      <c r="I11" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
+      <c r="J11" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>22</v>
+      <c r="K11" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>32</v>
+      <c r="L11" s="12" t="s">
+        <v>50</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="12"/>
+      <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A12" s="19">
+    <row r="12" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A13" s="19">
+    <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A14" s="19">
+    <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>3</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A15" s="19">
+    <row r="15" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>4</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A16" s="19">
+    <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A17" s="19">
+    <row r="17" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>6</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="21.9" customHeight="1">
-      <c r="A18" s="19">
+    <row r="18" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>7</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19">
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="62"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="64"/>
+    </row>
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="39"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="67"/>
     </row>
-    <row r="20" spans="1:13" ht="9.65" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="45"/>
+    <row r="32" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="62"/>
     </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="45"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="62"/>
     </row>
-    <row r="22" spans="1:13" ht="20" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="45"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="62"/>
     </row>
-    <row r="23" spans="1:13" ht="20" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="45"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="62"/>
     </row>
-    <row r="24" spans="1:13" ht="13.25" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="45"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="62"/>
     </row>
-    <row r="25" spans="1:13" ht="20" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="45"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="62"/>
     </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="45"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="62"/>
     </row>
-    <row r="27" spans="1:13" ht="20" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="45"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="62"/>
     </row>
-    <row r="28" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="45"/>
+    <row r="40" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="75"/>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="45"/>
+    <row r="41" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="8.25" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A31" s="48" t="s">
-        <v>47</v>
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>32</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50" t="s">
-        <v>48</v>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="50" t="s">
+        <v>33</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" ht="10.5" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="45"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="45"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="45"/>
-    </row>
-    <row r="40" spans="1:13" ht="47.4" customHeight="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
-    </row>
-    <row r="41" spans="1:13" ht="8.25" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="F42" s="31" t="s">
+      <c r="J42" s="24"/>
+      <c r="K42" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="10" t="s">
-        <v>44</v>
+      <c r="L42" s="25"/>
+      <c r="M42" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H4:I4"/>
@@ -10110,6 +10076,34 @@
     <mergeCell ref="A32:H40"/>
     <mergeCell ref="I32:M40"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10127,17 +10121,17 @@
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
